--- a/public/template/H2R GMM Template.xlsx
+++ b/public/template/H2R GMM Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medalsoftinc-my.sharepoint.com/personal/yuanyuan_wang_medalsoft_com/Documents/02项目/71西门子/02 西门子中国/03 GBS B&amp;B new system/01.项目分析/模板和主数据/Import Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4DA82427541F7ACA7EB8C8F84A136A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5386F3-DB33-4577-A8A7-E88EEA4FBE14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDCE371-6CCF-4745-9412-2D06CA15388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Assignment ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,52 +111,13 @@
   </si>
   <si>
     <t>Host/ Home Delegation Center DE</t>
-  </si>
-  <si>
-    <t>Tomasz</t>
-  </si>
-  <si>
-    <t>Klamecki</t>
-  </si>
-  <si>
-    <t>Z0022CNC</t>
-  </si>
-  <si>
-    <t>SFLL6021</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Martinez Perez</t>
-  </si>
-  <si>
-    <t>Z003DK3H</t>
-  </si>
-  <si>
-    <t>SFLL6012</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Teufel</t>
-  </si>
-  <si>
-    <t>Z002F04Y</t>
-  </si>
-  <si>
-    <t>R111101R</t>
-  </si>
-  <si>
-    <t>Cancellation fee - Host Based Delegation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
@@ -550,7 +509,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>480062</v>
       </c>
@@ -622,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>362951</v>
       </c>
@@ -656,110 +615,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="3">
-        <v>498456</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>202201</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>5547</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="3">
-        <v>626017</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3">
-        <v>202201</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>5547</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="3">
-        <v>764607</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3">
-        <v>202201</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>5547</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5"/>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -769,15 +626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060BC9B362EF8C043A0CC255B74856BF3" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c50d01044c98fb8ecbd144f89ed44461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e6d8e88-43bd-44c5-af4a-b3f409258f8a" xmlns:ns3="c7e0163d-619a-4037-a3c2-ba840964746c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1e26bed6c9607303f71b5c6e0324231" ns2:_="" ns3:_="">
     <xsd:import namespace="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
@@ -942,6 +790,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -949,13 +806,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{469B1979-7804-4AFF-A28A-485919D3525D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AABF5A-6F15-428C-A220-EB2FB9EC9805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AABF5A-6F15-428C-A220-EB2FB9EC9805}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{469B1979-7804-4AFF-A28A-485919D3525D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B9EB350-DD7D-42DD-91B2-056A31F55CEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B9EB350-DD7D-42DD-91B2-056A31F55CEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/template/H2R GMM Template.xlsx
+++ b/public/template/H2R GMM Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0047p6c\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDCE371-6CCF-4745-9412-2D06CA15388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FC428-FA4F-4F92-931F-F8C8913AAA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26355" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,11 +117,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -129,22 +129,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -203,12 +196,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,30 +476,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3">
         <v>480062</v>
       </c>
@@ -581,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3">
         <v>362951</v>
       </c>
@@ -614,9 +604,6 @@
       <c r="L3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -626,6 +613,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060BC9B362EF8C043A0CC255B74856BF3" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c50d01044c98fb8ecbd144f89ed44461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e6d8e88-43bd-44c5-af4a-b3f409258f8a" xmlns:ns3="c7e0163d-619a-4037-a3c2-ba840964746c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1e26bed6c9607303f71b5c6e0324231" ns2:_="" ns3:_="">
     <xsd:import namespace="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
@@ -790,22 +792,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B9EB350-DD7D-42DD-91B2-056A31F55CEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{469B1979-7804-4AFF-A28A-485919D3525D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AABF5A-6F15-428C-A220-EB2FB9EC9805}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -822,21 +826,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{469B1979-7804-4AFF-A28A-485919D3525D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B9EB350-DD7D-42DD-91B2-056A31F55CEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>